--- a/pred_result/test_12_8_2_total_noif.xlsx
+++ b/pred_result/test_12_8_2_total_noif.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\pred_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{539689A4-E200-4C01-8476-6A09D6B1AF78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E437EA-B770-4663-835E-3101A58AC9C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_12_8_2_total_noif" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -937,7 +937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
